--- a/WIP/Users/LucPT/FAP_TestViewpoint_VideoManagement_v1.0_EN.xlsx
+++ b/WIP/Users/LucPT/FAP_TestViewpoint_VideoManagement_v1.0_EN.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin-pc\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\2015SUMJS01\WIP\Users\LucPT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -280,10 +280,10 @@
     <definedName name="_9.1.1._ログ保存方法">#REF!</definedName>
     <definedName name="_9.1.2._ジャーナル処理">#REF!</definedName>
     <definedName name="_A1">'[1]諸定義&amp;保守'!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Viewpoint_Function!$J$2:$J$66</definedName>
-    <definedName name="_Toc350025729" localSheetId="1">Viewpoint_Function!$E$29</definedName>
-    <definedName name="_Toc350025731" localSheetId="1">Viewpoint_Function!$E$50</definedName>
-    <definedName name="_Toc350025733" localSheetId="1">Viewpoint_Function!$E$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Viewpoint_Function!$J$2:$J$65</definedName>
+    <definedName name="_Toc350025729" localSheetId="1">Viewpoint_Function!$E$28</definedName>
+    <definedName name="_Toc350025731" localSheetId="1">Viewpoint_Function!$E$49</definedName>
+    <definedName name="_Toc350025733" localSheetId="1">Viewpoint_Function!$E$74</definedName>
     <definedName name="a" localSheetId="3">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
     <definedName name="a" localSheetId="0">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
     <definedName name="a" localSheetId="4">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
@@ -318,7 +318,7 @@
     <definedName name="ＰＤ">#REF!</definedName>
     <definedName name="ＰＤ保守">#REF!</definedName>
     <definedName name="ＰＲ">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Viewpoint_Function!$A$1:$L$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Viewpoint_Function!$A$1:$L$30</definedName>
     <definedName name="_xlnm.Print_Area">#N/A</definedName>
     <definedName name="_xlnm.Print_Titles">[8]概略見積（資金）!$A$1:$IS$2</definedName>
     <definedName name="ＰＲ保守">#REF!</definedName>
@@ -556,7 +556,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="189">
   <si>
     <t>SST Test viewpoint</t>
   </si>
@@ -989,9 +989,6 @@
     <t>1.2.1.5</t>
   </si>
   <si>
-    <t>Edit profile screen</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -1042,9 +1039,6 @@
     <t>Create</t>
   </si>
   <si>
-    <t>Click "Create" button or press Enter</t>
-  </si>
-  <si>
     <t>Updates to user’s timeline. Updates to News feed of user’s friends. Redirects user to Post Page which contain created post.</t>
   </si>
   <si>
@@ -1098,25 +1092,13 @@
  which contain edited post.</t>
   </si>
   <si>
-    <t>Click "Add Photo".</t>
-  </si>
-  <si>
     <t>Click "Create Post"</t>
   </si>
   <si>
-    <t xml:space="preserve">Redirects user to Add Photo Page </t>
-  </si>
-  <si>
-    <t>1.2.1.8</t>
-  </si>
-  <si>
     <t>1.2.1.7</t>
   </si>
   <si>
     <t>click "Browse" button</t>
-  </si>
-  <si>
-    <t>Click "Edit" link</t>
   </si>
   <si>
     <t>Click "Delete Post"</t>
@@ -1161,6 +1143,21 @@
   </si>
   <si>
     <t>Delete Video</t>
+  </si>
+  <si>
+    <t>Video screen</t>
+  </si>
+  <si>
+    <t>Click "Video" button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redirects user to Add  Page </t>
+  </si>
+  <si>
+    <t>Click "Post" button or press Enter</t>
+  </si>
+  <si>
+    <t>Click "Edit" button</t>
   </si>
 </sst>
 </file>
@@ -3184,6 +3181,24 @@
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="198" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3204,24 +3219,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="30" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3619,6 +3616,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>676942</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>105192</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="733425"/>
+          <a:ext cx="4782217" cy="2991267"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -6302,9 +6348,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -6322,14 +6366,14 @@
     <row r="2" spans="1:8" s="5" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="111" t="s">
+      <c r="C2" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="112"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="118"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1">
       <c r="B3" s="6"/>
@@ -6344,57 +6388,57 @@
       <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="113" t="s">
-        <v>177</v>
-      </c>
-      <c r="D4" s="113"/>
-      <c r="E4" s="113"/>
-      <c r="F4" s="113"/>
+      <c r="C4" s="119" t="s">
+        <v>171</v>
+      </c>
+      <c r="D4" s="119"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
       <c r="G4" s="12" t="s">
         <v>2</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.25" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="113" t="s">
-        <v>178</v>
-      </c>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
+      <c r="C5" s="119" t="s">
+        <v>172</v>
+      </c>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
       <c r="G5" s="12" t="s">
         <v>4</v>
       </c>
       <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B6" s="114" t="s">
+      <c r="B6" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="115" t="s">
-        <v>179</v>
-      </c>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
+      <c r="C6" s="121" t="s">
+        <v>173</v>
+      </c>
+      <c r="D6" s="121"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="121"/>
       <c r="G6" s="12" t="s">
         <v>6</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="13.5" customHeight="1">
-      <c r="B7" s="114"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
+      <c r="B7" s="120"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
       <c r="G7" s="12" t="s">
         <v>7</v>
       </c>
@@ -6417,10 +6461,10 @@
       <c r="B9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="109" t="s">
+      <c r="C9" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="110"/>
+      <c r="D9" s="116"/>
       <c r="E9" s="19" t="s">
         <v>11</v>
       </c>
@@ -6436,12 +6480,12 @@
     </row>
     <row r="10" spans="1:8" s="21" customFormat="1" ht="25.5">
       <c r="B10" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="C10" s="118" t="s">
+        <v>175</v>
+      </c>
+      <c r="C10" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="119"/>
+      <c r="D10" s="112"/>
       <c r="E10" s="23" t="s">
         <v>15</v>
       </c>
@@ -6450,13 +6494,13 @@
         <v>16</v>
       </c>
       <c r="H10" s="26" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="21" customFormat="1" ht="13.5" customHeight="1">
       <c r="B11" s="27"/>
-      <c r="C11" s="118"/>
-      <c r="D11" s="119"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="112"/>
       <c r="E11" s="23"/>
       <c r="F11" s="24"/>
       <c r="G11" s="25"/>
@@ -6464,8 +6508,8 @@
     </row>
     <row r="12" spans="1:8" s="21" customFormat="1">
       <c r="B12" s="29"/>
-      <c r="C12" s="120"/>
-      <c r="D12" s="121"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="114"/>
       <c r="E12" s="30"/>
       <c r="F12" s="24"/>
       <c r="G12" s="25"/>
@@ -6473,8 +6517,8 @@
     </row>
     <row r="13" spans="1:8" s="21" customFormat="1">
       <c r="B13" s="29"/>
-      <c r="C13" s="118"/>
-      <c r="D13" s="119"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="112"/>
       <c r="E13" s="30"/>
       <c r="F13" s="24"/>
       <c r="G13" s="31"/>
@@ -6482,8 +6526,8 @@
     </row>
     <row r="14" spans="1:8" s="21" customFormat="1">
       <c r="B14" s="29"/>
-      <c r="C14" s="118"/>
-      <c r="D14" s="119"/>
+      <c r="C14" s="111"/>
+      <c r="D14" s="112"/>
       <c r="E14" s="30"/>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
@@ -6491,8 +6535,8 @@
     </row>
     <row r="15" spans="1:8" s="21" customFormat="1">
       <c r="B15" s="29"/>
-      <c r="C15" s="118"/>
-      <c r="D15" s="119"/>
+      <c r="C15" s="111"/>
+      <c r="D15" s="112"/>
       <c r="E15" s="30"/>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
@@ -6500,8 +6544,8 @@
     </row>
     <row r="16" spans="1:8" ht="13.5" thickBot="1">
       <c r="B16" s="32"/>
-      <c r="C16" s="116"/>
-      <c r="D16" s="117"/>
+      <c r="C16" s="109"/>
+      <c r="D16" s="110"/>
       <c r="E16" s="33"/>
       <c r="F16" s="34"/>
       <c r="G16" s="35"/>
@@ -6509,6 +6553,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:F7"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
@@ -6516,12 +6566,6 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:F7"/>
   </mergeCells>
   <pageMargins left="0.47013888888888888" right="0.47013888888888888" top="0.5" bottom="0.35138888888888886" header="0.51180555555555562" footer="0.1701388888888889"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6535,10 +6579,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M115"/>
+  <dimension ref="A1:M114"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="C1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6659,7 +6703,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E6" s="43"/>
       <c r="F6" s="43"/>
@@ -6728,10 +6772,10 @@
         <v>37</v>
       </c>
       <c r="K9" s="56" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="L9" s="59" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="44" customFormat="1" ht="103.5" customHeight="1">
@@ -6759,7 +6803,7 @@
         <v>40</v>
       </c>
       <c r="L10" s="59" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="44" customFormat="1">
@@ -6789,7 +6833,7 @@
       <c r="D12" s="60"/>
       <c r="E12" s="61"/>
       <c r="F12" s="51" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G12" s="52"/>
       <c r="H12" s="52"/>
@@ -6808,7 +6852,7 @@
       <c r="E13" s="56"/>
       <c r="F13" s="62"/>
       <c r="G13" s="62" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H13" s="49" t="s">
         <v>35</v>
@@ -6820,10 +6864,10 @@
         <v>37</v>
       </c>
       <c r="K13" s="56" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="L13" s="62" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="44" customFormat="1" ht="31.5" customHeight="1">
@@ -6836,7 +6880,7 @@
       <c r="E14" s="56"/>
       <c r="F14" s="62"/>
       <c r="G14" s="62" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="H14" s="49" t="s">
         <v>35</v>
@@ -6848,13 +6892,13 @@
         <v>37</v>
       </c>
       <c r="K14" s="56" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="L14" s="62" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="44" customFormat="1" ht="43.5" customHeight="1">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="44" customFormat="1" ht="42" customHeight="1">
       <c r="A15" s="47"/>
       <c r="B15" s="48"/>
       <c r="C15" s="49" t="s">
@@ -6864,7 +6908,7 @@
       <c r="E15" s="56"/>
       <c r="F15" s="62"/>
       <c r="G15" s="62" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="H15" s="49" t="s">
         <v>35</v>
@@ -6876,13 +6920,13 @@
         <v>37</v>
       </c>
       <c r="K15" s="56" t="s">
+        <v>142</v>
+      </c>
+      <c r="L15" s="62" t="s">
         <v>140</v>
       </c>
-      <c r="L15" s="62" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="44" customFormat="1" ht="42" customHeight="1">
+    </row>
+    <row r="16" spans="1:12" s="44" customFormat="1" ht="44.25" customHeight="1">
       <c r="A16" s="47"/>
       <c r="B16" s="48"/>
       <c r="C16" s="49" t="s">
@@ -6892,7 +6936,7 @@
       <c r="E16" s="56"/>
       <c r="F16" s="62"/>
       <c r="G16" s="62" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H16" s="49" t="s">
         <v>35</v>
@@ -6904,13 +6948,13 @@
         <v>37</v>
       </c>
       <c r="K16" s="56" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L16" s="62" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" s="44" customFormat="1" ht="44.25" customHeight="1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="44" customFormat="1" ht="27.75" customHeight="1">
       <c r="A17" s="47"/>
       <c r="B17" s="48"/>
       <c r="C17" s="49" t="s">
@@ -6920,7 +6964,7 @@
       <c r="E17" s="56"/>
       <c r="F17" s="62"/>
       <c r="G17" s="62" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H17" s="49" t="s">
         <v>35</v>
@@ -6932,23 +6976,23 @@
         <v>37</v>
       </c>
       <c r="K17" s="56" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L17" s="62" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="44" customFormat="1" ht="27.75" customHeight="1">
       <c r="A18" s="47"/>
       <c r="B18" s="48"/>
       <c r="C18" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D18" s="49"/>
       <c r="E18" s="56"/>
       <c r="F18" s="62"/>
       <c r="G18" s="62" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="H18" s="49" t="s">
         <v>35</v>
@@ -6960,23 +7004,23 @@
         <v>37</v>
       </c>
       <c r="K18" s="56" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="L18" s="62" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" s="44" customFormat="1" ht="27.75" customHeight="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="44" customFormat="1" ht="38.25" customHeight="1">
       <c r="A19" s="47"/>
       <c r="B19" s="48"/>
       <c r="C19" s="49" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D19" s="49"/>
       <c r="E19" s="56"/>
       <c r="F19" s="62"/>
       <c r="G19" s="62" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="H19" s="49" t="s">
         <v>35</v>
@@ -6988,69 +7032,69 @@
         <v>37</v>
       </c>
       <c r="K19" s="56" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="L19" s="62" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" s="44" customFormat="1" ht="38.25" customHeight="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="44" customFormat="1" ht="39" customHeight="1">
       <c r="A20" s="47"/>
       <c r="B20" s="48"/>
       <c r="C20" s="49" t="s">
-        <v>172</v>
-      </c>
-      <c r="D20" s="49"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62" t="s">
-        <v>150</v>
-      </c>
-      <c r="H20" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="I20" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="J20" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="K20" s="56" t="s">
-        <v>151</v>
-      </c>
-      <c r="L20" s="62" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" s="44" customFormat="1" ht="39" customHeight="1">
+        <v>48</v>
+      </c>
+      <c r="D20" s="60"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="51" t="s">
+        <v>181</v>
+      </c>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="55"/>
+    </row>
+    <row r="21" spans="1:12" s="44" customFormat="1" ht="35.25" customHeight="1">
       <c r="A21" s="47"/>
       <c r="B21" s="48"/>
       <c r="C21" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="60"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="51" t="s">
-        <v>187</v>
-      </c>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="55"/>
-    </row>
-    <row r="22" spans="1:12" s="44" customFormat="1" ht="35.25" customHeight="1">
+        <v>49</v>
+      </c>
+      <c r="D21" s="49"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="H21" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="I21" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="J21" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="K21" s="56" t="s">
+        <v>188</v>
+      </c>
+      <c r="L21" s="62" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="44" customFormat="1" ht="46.5" customHeight="1">
       <c r="A22" s="47"/>
       <c r="B22" s="48"/>
       <c r="C22" s="49" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D22" s="49"/>
       <c r="E22" s="56"/>
       <c r="F22" s="62"/>
       <c r="G22" s="62" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H22" s="49" t="s">
         <v>35</v>
@@ -7062,23 +7106,23 @@
         <v>37</v>
       </c>
       <c r="K22" s="56" t="s">
-        <v>175</v>
+        <v>139</v>
       </c>
       <c r="L22" s="62" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" s="44" customFormat="1" ht="46.5" customHeight="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="44" customFormat="1" ht="41.25" customHeight="1">
       <c r="A23" s="47"/>
       <c r="B23" s="48"/>
       <c r="C23" s="49" t="s">
-        <v>50</v>
+        <v>151</v>
       </c>
       <c r="D23" s="49"/>
       <c r="E23" s="56"/>
       <c r="F23" s="62"/>
       <c r="G23" s="62" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="H23" s="49" t="s">
         <v>35</v>
@@ -7090,51 +7134,51 @@
         <v>37</v>
       </c>
       <c r="K23" s="56" t="s">
+        <v>142</v>
+      </c>
+      <c r="L23" s="62" t="s">
         <v>140</v>
       </c>
-      <c r="L23" s="62" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" s="44" customFormat="1" ht="41.25" customHeight="1">
+    </row>
+    <row r="24" spans="1:12" s="44" customFormat="1" ht="37.5" customHeight="1">
       <c r="A24" s="47"/>
-      <c r="B24" s="48"/>
+      <c r="B24" s="49"/>
       <c r="C24" s="49" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D24" s="49"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62" t="s">
-        <v>142</v>
+      <c r="E24" s="99"/>
+      <c r="F24" s="100"/>
+      <c r="G24" s="100" t="s">
+        <v>143</v>
       </c>
       <c r="H24" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="I24" s="57" t="s">
+      <c r="I24" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="J24" s="58" t="s">
+      <c r="J24" s="102" t="s">
         <v>37</v>
       </c>
-      <c r="K24" s="56" t="s">
-        <v>143</v>
-      </c>
-      <c r="L24" s="62" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" s="44" customFormat="1" ht="37.5" customHeight="1">
+      <c r="K24" s="99" t="s">
+        <v>144</v>
+      </c>
+      <c r="L24" s="100" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="44" customFormat="1" ht="48" customHeight="1">
       <c r="A25" s="47"/>
       <c r="B25" s="49"/>
       <c r="C25" s="49" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D25" s="49"/>
       <c r="E25" s="99"/>
       <c r="F25" s="100"/>
       <c r="G25" s="100" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H25" s="49" t="s">
         <v>35</v>
@@ -7146,23 +7190,23 @@
         <v>37</v>
       </c>
       <c r="K25" s="99" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L25" s="100" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" s="44" customFormat="1" ht="48" customHeight="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="44" customFormat="1" ht="69.75" customHeight="1">
       <c r="A26" s="47"/>
       <c r="B26" s="49"/>
       <c r="C26" s="49" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D26" s="49"/>
       <c r="E26" s="99"/>
       <c r="F26" s="100"/>
       <c r="G26" s="100" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="H26" s="49" t="s">
         <v>35</v>
@@ -7174,59 +7218,59 @@
         <v>37</v>
       </c>
       <c r="K26" s="99" t="s">
-        <v>148</v>
-      </c>
-      <c r="L26" s="100" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" s="44" customFormat="1" ht="69.75" customHeight="1">
+        <v>156</v>
+      </c>
+      <c r="L26" s="62" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" s="44" customFormat="1" ht="41.25" customHeight="1">
       <c r="A27" s="47"/>
       <c r="B27" s="49"/>
       <c r="C27" s="49" t="s">
-        <v>156</v>
-      </c>
-      <c r="D27" s="49"/>
-      <c r="E27" s="99"/>
-      <c r="F27" s="100"/>
-      <c r="G27" s="100" t="s">
         <v>157</v>
       </c>
-      <c r="H27" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="I27" s="101" t="s">
-        <v>36</v>
-      </c>
-      <c r="J27" s="102" t="s">
-        <v>37</v>
-      </c>
-      <c r="K27" s="99" t="s">
-        <v>158</v>
-      </c>
-      <c r="L27" s="62" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" s="44" customFormat="1" ht="41.25" customHeight="1">
+      <c r="D27" s="60"/>
+      <c r="E27" s="103"/>
+      <c r="F27" s="51" t="s">
+        <v>183</v>
+      </c>
+      <c r="G27" s="104"/>
+      <c r="H27" s="104"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="104"/>
+      <c r="L27" s="105"/>
+    </row>
+    <row r="28" spans="1:12" s="44" customFormat="1" ht="42" customHeight="1">
       <c r="A28" s="47"/>
       <c r="B28" s="49"/>
       <c r="C28" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="D28" s="60"/>
-      <c r="E28" s="103"/>
-      <c r="F28" s="51" t="s">
-        <v>189</v>
-      </c>
-      <c r="G28" s="104"/>
-      <c r="H28" s="104"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="54"/>
-      <c r="K28" s="104"/>
-      <c r="L28" s="105"/>
-    </row>
-    <row r="29" spans="1:12" s="44" customFormat="1" ht="42" customHeight="1">
+      <c r="D28" s="49"/>
+      <c r="E28" s="99"/>
+      <c r="F28" s="100"/>
+      <c r="G28" s="100" t="s">
+        <v>158</v>
+      </c>
+      <c r="H28" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="I28" s="101" t="s">
+        <v>36</v>
+      </c>
+      <c r="J28" s="102" t="s">
+        <v>37</v>
+      </c>
+      <c r="K28" s="99" t="s">
+        <v>170</v>
+      </c>
+      <c r="L28" s="100" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" s="44" customFormat="1" ht="39.75" customHeight="1">
       <c r="A29" s="47"/>
       <c r="B29" s="49"/>
       <c r="C29" s="49" t="s">
@@ -7236,7 +7280,7 @@
       <c r="E29" s="99"/>
       <c r="F29" s="100"/>
       <c r="G29" s="100" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H29" s="49" t="s">
         <v>35</v>
@@ -7248,62 +7292,48 @@
         <v>37</v>
       </c>
       <c r="K29" s="99" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="L29" s="100" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" s="44" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A30" s="47"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="49" t="s">
-        <v>163</v>
-      </c>
-      <c r="D30" s="49"/>
-      <c r="E30" s="99"/>
-      <c r="F30" s="100"/>
-      <c r="G30" s="100" t="s">
         <v>164</v>
       </c>
-      <c r="H30" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="I30" s="101" t="s">
-        <v>36</v>
-      </c>
-      <c r="J30" s="102" t="s">
-        <v>37</v>
-      </c>
-      <c r="K30" s="99" t="s">
-        <v>165</v>
-      </c>
-      <c r="L30" s="100" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" s="44" customFormat="1">
+    </row>
+    <row r="30" spans="1:12" s="44" customFormat="1">
+      <c r="A30" s="63"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="106"/>
+      <c r="F30" s="106"/>
+      <c r="G30" s="107"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="74"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="106"/>
+      <c r="L30" s="108"/>
+    </row>
+    <row r="31" spans="1:12" s="44" customFormat="1" ht="17.25" customHeight="1">
       <c r="A31" s="63"/>
       <c r="B31" s="64"/>
       <c r="C31" s="64"/>
       <c r="D31" s="64"/>
-      <c r="E31" s="106"/>
-      <c r="F31" s="106"/>
-      <c r="G31" s="107"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="70"/>
       <c r="H31" s="64"/>
-      <c r="I31" s="74"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="106"/>
-      <c r="L31" s="108"/>
-    </row>
-    <row r="32" spans="1:12" s="44" customFormat="1" ht="17.25" customHeight="1">
+      <c r="I31" s="66"/>
+      <c r="J31" s="67"/>
+      <c r="K31" s="65"/>
+      <c r="L31" s="71"/>
+    </row>
+    <row r="32" spans="1:12" s="44" customFormat="1">
       <c r="A32" s="63"/>
       <c r="B32" s="64"/>
       <c r="C32" s="64"/>
       <c r="D32" s="64"/>
       <c r="E32" s="65"/>
       <c r="F32" s="65"/>
-      <c r="G32" s="70"/>
+      <c r="G32" s="65"/>
       <c r="H32" s="64"/>
       <c r="I32" s="66"/>
       <c r="J32" s="67"/>
@@ -7317,12 +7347,12 @@
       <c r="D33" s="64"/>
       <c r="E33" s="65"/>
       <c r="F33" s="65"/>
-      <c r="G33" s="65"/>
+      <c r="G33" s="70"/>
       <c r="H33" s="64"/>
       <c r="I33" s="66"/>
       <c r="J33" s="67"/>
       <c r="K33" s="65"/>
-      <c r="L33" s="71"/>
+      <c r="L33" s="65"/>
     </row>
     <row r="34" spans="1:12" s="44" customFormat="1">
       <c r="A34" s="63"/>
@@ -7336,7 +7366,7 @@
       <c r="I34" s="66"/>
       <c r="J34" s="67"/>
       <c r="K34" s="65"/>
-      <c r="L34" s="65"/>
+      <c r="L34" s="73"/>
     </row>
     <row r="35" spans="1:12" s="44" customFormat="1">
       <c r="A35" s="63"/>
@@ -7345,12 +7375,12 @@
       <c r="D35" s="64"/>
       <c r="E35" s="65"/>
       <c r="F35" s="65"/>
-      <c r="G35" s="70"/>
+      <c r="G35" s="74"/>
       <c r="H35" s="64"/>
       <c r="I35" s="66"/>
       <c r="J35" s="67"/>
-      <c r="K35" s="65"/>
-      <c r="L35" s="73"/>
+      <c r="K35" s="71"/>
+      <c r="L35" s="71"/>
     </row>
     <row r="36" spans="1:12" s="44" customFormat="1">
       <c r="A36" s="63"/>
@@ -7359,7 +7389,7 @@
       <c r="D36" s="64"/>
       <c r="E36" s="65"/>
       <c r="F36" s="65"/>
-      <c r="G36" s="74"/>
+      <c r="G36" s="70"/>
       <c r="H36" s="64"/>
       <c r="I36" s="66"/>
       <c r="J36" s="67"/>
@@ -7380,7 +7410,7 @@
       <c r="K37" s="71"/>
       <c r="L37" s="71"/>
     </row>
-    <row r="38" spans="1:12" s="44" customFormat="1">
+    <row r="38" spans="1:12" s="44" customFormat="1" ht="17.25" customHeight="1">
       <c r="A38" s="63"/>
       <c r="B38" s="64"/>
       <c r="C38" s="64"/>
@@ -7394,7 +7424,7 @@
       <c r="K38" s="71"/>
       <c r="L38" s="71"/>
     </row>
-    <row r="39" spans="1:12" s="44" customFormat="1" ht="17.25" customHeight="1">
+    <row r="39" spans="1:12" s="44" customFormat="1">
       <c r="A39" s="63"/>
       <c r="B39" s="64"/>
       <c r="C39" s="64"/>
@@ -7439,8 +7469,8 @@
     <row r="42" spans="1:12" s="44" customFormat="1">
       <c r="A42" s="63"/>
       <c r="B42" s="64"/>
-      <c r="C42" s="64"/>
-      <c r="D42" s="64"/>
+      <c r="C42" s="68"/>
+      <c r="D42" s="68"/>
       <c r="E42" s="65"/>
       <c r="F42" s="65"/>
       <c r="G42" s="70"/>
@@ -7453,8 +7483,8 @@
     <row r="43" spans="1:12" s="44" customFormat="1">
       <c r="A43" s="63"/>
       <c r="B43" s="64"/>
-      <c r="C43" s="68"/>
-      <c r="D43" s="68"/>
+      <c r="C43" s="64"/>
+      <c r="D43" s="64"/>
       <c r="E43" s="65"/>
       <c r="F43" s="65"/>
       <c r="G43" s="70"/>
@@ -7493,8 +7523,8 @@
       <c r="L45" s="71"/>
     </row>
     <row r="46" spans="1:12" s="44" customFormat="1">
-      <c r="A46" s="63"/>
-      <c r="B46" s="64"/>
+      <c r="A46" s="68"/>
+      <c r="B46" s="68"/>
       <c r="C46" s="64"/>
       <c r="D46" s="64"/>
       <c r="E46" s="65"/>
@@ -7507,8 +7537,8 @@
       <c r="L46" s="71"/>
     </row>
     <row r="47" spans="1:12" s="44" customFormat="1">
-      <c r="A47" s="68"/>
-      <c r="B47" s="68"/>
+      <c r="A47" s="63"/>
+      <c r="B47" s="64"/>
       <c r="C47" s="64"/>
       <c r="D47" s="64"/>
       <c r="E47" s="65"/>
@@ -7536,31 +7566,31 @@
     </row>
     <row r="49" spans="1:12" s="44" customFormat="1">
       <c r="A49" s="63"/>
-      <c r="B49" s="64"/>
+      <c r="B49" s="72"/>
       <c r="C49" s="64"/>
       <c r="D49" s="64"/>
-      <c r="E49" s="65"/>
-      <c r="F49" s="65"/>
-      <c r="G49" s="70"/>
-      <c r="H49" s="64"/>
-      <c r="I49" s="66"/>
-      <c r="J49" s="67"/>
-      <c r="K49" s="71"/>
-      <c r="L49" s="71"/>
+      <c r="E49" s="69"/>
+      <c r="F49" s="69"/>
+      <c r="G49" s="69"/>
+      <c r="H49" s="69"/>
+      <c r="I49" s="69"/>
+      <c r="J49" s="69"/>
+      <c r="K49" s="69"/>
+      <c r="L49" s="69"/>
     </row>
     <row r="50" spans="1:12" s="44" customFormat="1">
       <c r="A50" s="63"/>
       <c r="B50" s="72"/>
       <c r="C50" s="64"/>
       <c r="D50" s="64"/>
-      <c r="E50" s="69"/>
-      <c r="F50" s="69"/>
-      <c r="G50" s="69"/>
-      <c r="H50" s="69"/>
-      <c r="I50" s="69"/>
-      <c r="J50" s="69"/>
-      <c r="K50" s="69"/>
-      <c r="L50" s="69"/>
+      <c r="E50" s="65"/>
+      <c r="F50" s="65"/>
+      <c r="G50" s="70"/>
+      <c r="H50" s="64"/>
+      <c r="I50" s="66"/>
+      <c r="J50" s="67"/>
+      <c r="K50" s="65"/>
+      <c r="L50" s="65"/>
     </row>
     <row r="51" spans="1:12" s="44" customFormat="1">
       <c r="A51" s="63"/>
@@ -7574,7 +7604,7 @@
       <c r="I51" s="66"/>
       <c r="J51" s="67"/>
       <c r="K51" s="65"/>
-      <c r="L51" s="65"/>
+      <c r="L51" s="71"/>
     </row>
     <row r="52" spans="1:12" s="44" customFormat="1">
       <c r="A52" s="63"/>
@@ -7597,7 +7627,7 @@
       <c r="D53" s="64"/>
       <c r="E53" s="65"/>
       <c r="F53" s="65"/>
-      <c r="G53" s="70"/>
+      <c r="G53" s="65"/>
       <c r="H53" s="64"/>
       <c r="I53" s="66"/>
       <c r="J53" s="67"/>
@@ -7607,7 +7637,7 @@
     <row r="54" spans="1:12" s="44" customFormat="1">
       <c r="A54" s="63"/>
       <c r="B54" s="72"/>
-      <c r="C54" s="64"/>
+      <c r="C54" s="72"/>
       <c r="D54" s="64"/>
       <c r="E54" s="65"/>
       <c r="F54" s="65"/>
@@ -7649,7 +7679,7 @@
     <row r="57" spans="1:12" s="44" customFormat="1">
       <c r="A57" s="63"/>
       <c r="B57" s="72"/>
-      <c r="C57" s="72"/>
+      <c r="C57" s="64"/>
       <c r="D57" s="64"/>
       <c r="E57" s="65"/>
       <c r="F57" s="65"/>
@@ -7662,7 +7692,7 @@
     </row>
     <row r="58" spans="1:12" s="44" customFormat="1">
       <c r="A58" s="63"/>
-      <c r="B58" s="72"/>
+      <c r="B58" s="64"/>
       <c r="C58" s="64"/>
       <c r="D58" s="64"/>
       <c r="E58" s="65"/>
@@ -7676,7 +7706,7 @@
     </row>
     <row r="59" spans="1:12" s="44" customFormat="1">
       <c r="A59" s="63"/>
-      <c r="B59" s="64"/>
+      <c r="B59" s="72"/>
       <c r="C59" s="64"/>
       <c r="D59" s="64"/>
       <c r="E59" s="65"/>
@@ -7705,8 +7735,8 @@
     <row r="61" spans="1:12" s="44" customFormat="1">
       <c r="A61" s="63"/>
       <c r="B61" s="72"/>
-      <c r="C61" s="64"/>
-      <c r="D61" s="64"/>
+      <c r="C61" s="68"/>
+      <c r="D61" s="68"/>
       <c r="E61" s="65"/>
       <c r="F61" s="65"/>
       <c r="G61" s="65"/>
@@ -7714,14 +7744,14 @@
       <c r="I61" s="66"/>
       <c r="J61" s="67"/>
       <c r="K61" s="65"/>
-      <c r="L61" s="71"/>
+      <c r="L61" s="65"/>
     </row>
     <row r="62" spans="1:12" s="44" customFormat="1">
       <c r="A62" s="63"/>
       <c r="B62" s="72"/>
-      <c r="C62" s="68"/>
-      <c r="D62" s="68"/>
-      <c r="E62" s="65"/>
+      <c r="C62" s="67"/>
+      <c r="D62" s="64"/>
+      <c r="E62" s="70"/>
       <c r="F62" s="65"/>
       <c r="G62" s="65"/>
       <c r="H62" s="64"/>
@@ -7732,7 +7762,7 @@
     </row>
     <row r="63" spans="1:12" s="44" customFormat="1">
       <c r="A63" s="63"/>
-      <c r="B63" s="72"/>
+      <c r="B63" s="64"/>
       <c r="C63" s="67"/>
       <c r="D63" s="64"/>
       <c r="E63" s="70"/>
@@ -7751,16 +7781,16 @@
       <c r="D64" s="64"/>
       <c r="E64" s="70"/>
       <c r="F64" s="65"/>
-      <c r="G64" s="65"/>
+      <c r="G64" s="70"/>
       <c r="H64" s="64"/>
       <c r="I64" s="66"/>
       <c r="J64" s="67"/>
-      <c r="K64" s="65"/>
+      <c r="K64" s="71"/>
       <c r="L64" s="65"/>
     </row>
     <row r="65" spans="1:13" s="44" customFormat="1">
-      <c r="A65" s="63"/>
-      <c r="B65" s="64"/>
+      <c r="A65" s="68"/>
+      <c r="B65" s="68"/>
       <c r="C65" s="67"/>
       <c r="D65" s="64"/>
       <c r="E65" s="70"/>
@@ -7769,16 +7799,16 @@
       <c r="H65" s="64"/>
       <c r="I65" s="66"/>
       <c r="J65" s="67"/>
-      <c r="K65" s="71"/>
+      <c r="K65" s="65"/>
       <c r="L65" s="65"/>
     </row>
     <row r="66" spans="1:13" s="44" customFormat="1">
-      <c r="A66" s="68"/>
-      <c r="B66" s="68"/>
+      <c r="A66" s="38"/>
+      <c r="B66" s="38"/>
       <c r="C66" s="67"/>
       <c r="D66" s="64"/>
       <c r="E66" s="70"/>
-      <c r="F66" s="65"/>
+      <c r="F66" s="70"/>
       <c r="G66" s="70"/>
       <c r="H66" s="64"/>
       <c r="I66" s="66"/>
@@ -7789,8 +7819,8 @@
     <row r="67" spans="1:13" s="44" customFormat="1">
       <c r="A67" s="38"/>
       <c r="B67" s="38"/>
-      <c r="C67" s="67"/>
-      <c r="D67" s="64"/>
+      <c r="C67" s="68"/>
+      <c r="D67" s="68"/>
       <c r="E67" s="70"/>
       <c r="F67" s="70"/>
       <c r="G67" s="70"/>
@@ -7803,52 +7833,52 @@
     <row r="68" spans="1:13" s="44" customFormat="1">
       <c r="A68" s="38"/>
       <c r="B68" s="38"/>
-      <c r="C68" s="68"/>
-      <c r="D68" s="68"/>
-      <c r="E68" s="70"/>
-      <c r="F68" s="70"/>
-      <c r="G68" s="70"/>
-      <c r="H68" s="64"/>
-      <c r="I68" s="66"/>
-      <c r="J68" s="67"/>
-      <c r="K68" s="65"/>
-      <c r="L68" s="65"/>
+      <c r="C68" s="67"/>
+      <c r="D68" s="64"/>
+      <c r="E68" s="69"/>
+      <c r="F68" s="69"/>
+      <c r="G68" s="69"/>
+      <c r="H68" s="69"/>
+      <c r="I68" s="69"/>
+      <c r="J68" s="69"/>
+      <c r="K68" s="69"/>
+      <c r="L68" s="68"/>
     </row>
     <row r="69" spans="1:13" s="44" customFormat="1">
       <c r="A69" s="38"/>
       <c r="B69" s="38"/>
       <c r="C69" s="67"/>
       <c r="D69" s="64"/>
-      <c r="E69" s="69"/>
-      <c r="F69" s="69"/>
-      <c r="G69" s="69"/>
-      <c r="H69" s="69"/>
-      <c r="I69" s="69"/>
-      <c r="J69" s="69"/>
-      <c r="K69" s="69"/>
-      <c r="L69" s="68"/>
+      <c r="E69" s="75"/>
+      <c r="F69" s="65"/>
+      <c r="G69" s="75"/>
+      <c r="H69" s="64"/>
+      <c r="I69" s="66"/>
+      <c r="J69" s="67"/>
+      <c r="K69" s="75"/>
+      <c r="L69" s="75"/>
     </row>
     <row r="70" spans="1:13" s="44" customFormat="1">
       <c r="A70" s="38"/>
       <c r="B70" s="38"/>
-      <c r="C70" s="67"/>
-      <c r="D70" s="64"/>
+      <c r="C70" s="68"/>
+      <c r="D70" s="68"/>
       <c r="E70" s="75"/>
       <c r="F70" s="65"/>
       <c r="G70" s="75"/>
       <c r="H70" s="64"/>
       <c r="I70" s="66"/>
       <c r="J70" s="67"/>
-      <c r="K70" s="75"/>
+      <c r="K70" s="76"/>
       <c r="L70" s="75"/>
     </row>
     <row r="71" spans="1:13" s="44" customFormat="1">
-      <c r="A71" s="38"/>
-      <c r="B71" s="38"/>
-      <c r="C71" s="68"/>
-      <c r="D71" s="68"/>
+      <c r="A71" s="68"/>
+      <c r="B71" s="68"/>
+      <c r="C71" s="67"/>
+      <c r="D71" s="64"/>
       <c r="E71" s="75"/>
-      <c r="F71" s="65"/>
+      <c r="F71" s="75"/>
       <c r="G71" s="75"/>
       <c r="H71" s="64"/>
       <c r="I71" s="66"/>
@@ -7857,8 +7887,8 @@
       <c r="L71" s="75"/>
     </row>
     <row r="72" spans="1:13" s="44" customFormat="1">
-      <c r="A72" s="68"/>
-      <c r="B72" s="68"/>
+      <c r="A72" s="38"/>
+      <c r="B72" s="38"/>
       <c r="C72" s="67"/>
       <c r="D72" s="64"/>
       <c r="E72" s="75"/>
@@ -7873,8 +7903,8 @@
     <row r="73" spans="1:13" s="44" customFormat="1">
       <c r="A73" s="38"/>
       <c r="B73" s="38"/>
-      <c r="C73" s="67"/>
-      <c r="D73" s="64"/>
+      <c r="C73" s="68"/>
+      <c r="D73" s="68"/>
       <c r="E73" s="75"/>
       <c r="F73" s="75"/>
       <c r="G73" s="75"/>
@@ -7885,39 +7915,40 @@
       <c r="L73" s="75"/>
     </row>
     <row r="74" spans="1:13" s="44" customFormat="1">
-      <c r="A74" s="38"/>
-      <c r="B74" s="38"/>
-      <c r="C74" s="68"/>
-      <c r="D74" s="68"/>
-      <c r="E74" s="75"/>
-      <c r="F74" s="75"/>
-      <c r="G74" s="75"/>
-      <c r="H74" s="64"/>
-      <c r="I74" s="66"/>
-      <c r="J74" s="67"/>
-      <c r="K74" s="76"/>
-      <c r="L74" s="75"/>
+      <c r="A74" s="68"/>
+      <c r="B74" s="68"/>
+      <c r="C74" s="64"/>
+      <c r="D74" s="64"/>
+      <c r="E74" s="69"/>
+      <c r="F74" s="69"/>
+      <c r="G74" s="69"/>
+      <c r="H74" s="69"/>
+      <c r="I74" s="69"/>
+      <c r="J74" s="69"/>
+      <c r="K74" s="69"/>
+      <c r="L74" s="68"/>
+      <c r="M74" s="37"/>
     </row>
     <row r="75" spans="1:13" s="44" customFormat="1">
-      <c r="A75" s="68"/>
-      <c r="B75" s="68"/>
+      <c r="A75" s="38"/>
+      <c r="B75" s="38"/>
       <c r="C75" s="64"/>
       <c r="D75" s="64"/>
-      <c r="E75" s="69"/>
-      <c r="F75" s="69"/>
-      <c r="G75" s="69"/>
-      <c r="H75" s="69"/>
-      <c r="I75" s="69"/>
-      <c r="J75" s="69"/>
-      <c r="K75" s="69"/>
-      <c r="L75" s="68"/>
+      <c r="E75" s="75"/>
+      <c r="F75" s="65"/>
+      <c r="G75" s="75"/>
+      <c r="H75" s="64"/>
+      <c r="I75" s="66"/>
+      <c r="J75" s="67"/>
+      <c r="K75" s="76"/>
+      <c r="L75" s="75"/>
       <c r="M75" s="37"/>
     </row>
-    <row r="76" spans="1:13" s="44" customFormat="1">
+    <row r="76" spans="1:13">
       <c r="A76" s="38"/>
       <c r="B76" s="38"/>
-      <c r="C76" s="64"/>
-      <c r="D76" s="64"/>
+      <c r="C76" s="68"/>
+      <c r="D76" s="68"/>
       <c r="E76" s="75"/>
       <c r="F76" s="65"/>
       <c r="G76" s="75"/>
@@ -7926,38 +7957,38 @@
       <c r="J76" s="67"/>
       <c r="K76" s="76"/>
       <c r="L76" s="75"/>
-      <c r="M76" s="37"/>
+      <c r="M76" s="44"/>
     </row>
     <row r="77" spans="1:13">
-      <c r="A77" s="38"/>
-      <c r="B77" s="38"/>
-      <c r="C77" s="68"/>
-      <c r="D77" s="68"/>
-      <c r="E77" s="75"/>
-      <c r="F77" s="65"/>
-      <c r="G77" s="75"/>
-      <c r="H77" s="64"/>
-      <c r="I77" s="66"/>
-      <c r="J77" s="67"/>
-      <c r="K77" s="76"/>
-      <c r="L77" s="75"/>
-      <c r="M77" s="44"/>
-    </row>
-    <row r="78" spans="1:13">
-      <c r="A78" s="68"/>
-      <c r="B78" s="68"/>
+      <c r="A77" s="68"/>
+      <c r="B77" s="68"/>
+      <c r="C77" s="38"/>
+      <c r="D77" s="38"/>
+      <c r="E77" s="69"/>
+      <c r="F77" s="69"/>
+      <c r="G77" s="69"/>
+      <c r="H77" s="69"/>
+      <c r="I77" s="69"/>
+      <c r="J77" s="69"/>
+      <c r="K77" s="69"/>
+      <c r="L77" s="68"/>
+    </row>
+    <row r="78" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A78" s="63"/>
+      <c r="B78" s="72"/>
       <c r="C78" s="38"/>
       <c r="D78" s="38"/>
-      <c r="E78" s="69"/>
-      <c r="F78" s="69"/>
-      <c r="G78" s="69"/>
-      <c r="H78" s="69"/>
-      <c r="I78" s="69"/>
-      <c r="J78" s="69"/>
-      <c r="K78" s="69"/>
-      <c r="L78" s="68"/>
-    </row>
-    <row r="79" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
+      <c r="E78" s="75"/>
+      <c r="F78" s="65"/>
+      <c r="G78" s="75"/>
+      <c r="H78" s="64"/>
+      <c r="I78" s="66"/>
+      <c r="J78" s="67"/>
+      <c r="K78" s="76"/>
+      <c r="L78" s="75"/>
+      <c r="M78" s="37"/>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="63"/>
       <c r="B79" s="72"/>
       <c r="C79" s="38"/>
@@ -7970,35 +8001,34 @@
       <c r="J79" s="67"/>
       <c r="K79" s="76"/>
       <c r="L79" s="75"/>
-      <c r="M79" s="37"/>
     </row>
     <row r="80" spans="1:13">
-      <c r="A80" s="63"/>
-      <c r="B80" s="72"/>
+      <c r="A80" s="68"/>
+      <c r="B80" s="68"/>
       <c r="C80" s="38"/>
       <c r="D80" s="38"/>
-      <c r="E80" s="75"/>
-      <c r="F80" s="65"/>
-      <c r="G80" s="75"/>
-      <c r="H80" s="64"/>
-      <c r="I80" s="66"/>
-      <c r="J80" s="67"/>
-      <c r="K80" s="76"/>
-      <c r="L80" s="75"/>
+      <c r="E80" s="69"/>
+      <c r="F80" s="69"/>
+      <c r="G80" s="69"/>
+      <c r="H80" s="69"/>
+      <c r="I80" s="69"/>
+      <c r="J80" s="69"/>
+      <c r="K80" s="69"/>
+      <c r="L80" s="68"/>
     </row>
     <row r="81" spans="1:13">
-      <c r="A81" s="68"/>
-      <c r="B81" s="68"/>
+      <c r="A81" s="38"/>
+      <c r="B81" s="38"/>
       <c r="C81" s="38"/>
       <c r="D81" s="38"/>
-      <c r="E81" s="69"/>
-      <c r="F81" s="69"/>
-      <c r="G81" s="69"/>
-      <c r="H81" s="69"/>
-      <c r="I81" s="69"/>
-      <c r="J81" s="69"/>
-      <c r="K81" s="69"/>
-      <c r="L81" s="68"/>
+      <c r="E81" s="65"/>
+      <c r="F81" s="65"/>
+      <c r="G81" s="65"/>
+      <c r="H81" s="64"/>
+      <c r="I81" s="64"/>
+      <c r="J81" s="77"/>
+      <c r="K81" s="65"/>
+      <c r="L81" s="65"/>
     </row>
     <row r="82" spans="1:13">
       <c r="A82" s="38"/>
@@ -8007,43 +8037,44 @@
       <c r="D82" s="38"/>
       <c r="E82" s="65"/>
       <c r="F82" s="65"/>
-      <c r="G82" s="65"/>
+      <c r="G82" s="70"/>
       <c r="H82" s="64"/>
-      <c r="I82" s="64"/>
-      <c r="J82" s="77"/>
+      <c r="I82" s="66"/>
+      <c r="J82" s="67"/>
       <c r="K82" s="65"/>
       <c r="L82" s="65"/>
+      <c r="M82" s="44"/>
     </row>
     <row r="83" spans="1:13">
       <c r="A83" s="38"/>
       <c r="B83" s="38"/>
       <c r="C83" s="38"/>
       <c r="D83" s="38"/>
-      <c r="E83" s="65"/>
-      <c r="F83" s="65"/>
-      <c r="G83" s="70"/>
-      <c r="H83" s="64"/>
-      <c r="I83" s="66"/>
-      <c r="J83" s="67"/>
-      <c r="K83" s="65"/>
-      <c r="L83" s="65"/>
-      <c r="M83" s="44"/>
-    </row>
-    <row r="84" spans="1:13">
+      <c r="E83" s="69"/>
+      <c r="F83" s="69"/>
+      <c r="G83" s="69"/>
+      <c r="H83" s="69"/>
+      <c r="I83" s="69"/>
+      <c r="J83" s="69"/>
+      <c r="K83" s="69"/>
+      <c r="L83" s="68"/>
+    </row>
+    <row r="84" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
       <c r="A84" s="38"/>
       <c r="B84" s="38"/>
       <c r="C84" s="38"/>
       <c r="D84" s="38"/>
-      <c r="E84" s="69"/>
-      <c r="F84" s="69"/>
-      <c r="G84" s="69"/>
-      <c r="H84" s="69"/>
-      <c r="I84" s="69"/>
-      <c r="J84" s="69"/>
-      <c r="K84" s="69"/>
-      <c r="L84" s="68"/>
-    </row>
-    <row r="85" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
+      <c r="E84" s="38"/>
+      <c r="F84" s="38"/>
+      <c r="G84" s="38"/>
+      <c r="H84" s="38"/>
+      <c r="I84" s="38"/>
+      <c r="J84" s="38"/>
+      <c r="K84" s="38"/>
+      <c r="L84" s="38"/>
+      <c r="M84" s="37"/>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="38"/>
       <c r="B85" s="38"/>
       <c r="C85" s="38"/>
@@ -8056,7 +8087,7 @@
       <c r="J85" s="38"/>
       <c r="K85" s="38"/>
       <c r="L85" s="38"/>
-      <c r="M85" s="37"/>
+      <c r="M85" s="44"/>
     </row>
     <row r="86" spans="1:13">
       <c r="A86" s="38"/>
@@ -8071,13 +8102,12 @@
       <c r="J86" s="38"/>
       <c r="K86" s="38"/>
       <c r="L86" s="38"/>
-      <c r="M86" s="44"/>
-    </row>
-    <row r="87" spans="1:13">
+    </row>
+    <row r="87" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
       <c r="A87" s="38"/>
       <c r="B87" s="38"/>
-      <c r="C87" s="38"/>
-      <c r="D87" s="38"/>
+      <c r="C87" s="64"/>
+      <c r="D87" s="64"/>
       <c r="E87" s="38"/>
       <c r="F87" s="38"/>
       <c r="G87" s="38"/>
@@ -8086,8 +8116,9 @@
       <c r="J87" s="38"/>
       <c r="K87" s="38"/>
       <c r="L87" s="38"/>
-    </row>
-    <row r="88" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
+      <c r="M87" s="37"/>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="38"/>
       <c r="B88" s="38"/>
       <c r="C88" s="64"/>
@@ -8100,13 +8131,11 @@
       <c r="J88" s="38"/>
       <c r="K88" s="38"/>
       <c r="L88" s="38"/>
-      <c r="M88" s="37"/>
+      <c r="M88" s="44"/>
     </row>
     <row r="89" spans="1:13">
       <c r="A89" s="38"/>
       <c r="B89" s="38"/>
-      <c r="C89" s="64"/>
-      <c r="D89" s="64"/>
       <c r="E89" s="38"/>
       <c r="F89" s="38"/>
       <c r="G89" s="38"/>
@@ -8117,9 +8146,11 @@
       <c r="L89" s="38"/>
       <c r="M89" s="44"/>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
       <c r="A90" s="38"/>
       <c r="B90" s="38"/>
+      <c r="C90" s="37"/>
+      <c r="D90" s="37"/>
       <c r="E90" s="38"/>
       <c r="F90" s="38"/>
       <c r="G90" s="38"/>
@@ -8128,11 +8159,11 @@
       <c r="J90" s="38"/>
       <c r="K90" s="38"/>
       <c r="L90" s="38"/>
-      <c r="M90" s="44"/>
+      <c r="M90" s="37"/>
     </row>
     <row r="91" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A91" s="38"/>
-      <c r="B91" s="38"/>
+      <c r="A91" s="63"/>
+      <c r="B91" s="72"/>
       <c r="C91" s="37"/>
       <c r="D91" s="37"/>
       <c r="E91" s="38"/>
@@ -8145,11 +8176,9 @@
       <c r="L91" s="38"/>
       <c r="M91" s="37"/>
     </row>
-    <row r="92" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
+    <row r="92" spans="1:13">
       <c r="A92" s="63"/>
-      <c r="B92" s="72"/>
-      <c r="C92" s="37"/>
-      <c r="D92" s="37"/>
+      <c r="B92" s="64"/>
       <c r="E92" s="38"/>
       <c r="F92" s="38"/>
       <c r="G92" s="38"/>
@@ -8158,11 +8187,8 @@
       <c r="J92" s="38"/>
       <c r="K92" s="38"/>
       <c r="L92" s="38"/>
-      <c r="M92" s="37"/>
     </row>
     <row r="93" spans="1:13">
-      <c r="A93" s="63"/>
-      <c r="B93" s="64"/>
       <c r="E93" s="38"/>
       <c r="F93" s="38"/>
       <c r="G93" s="38"/>
@@ -8173,18 +8199,18 @@
       <c r="L93" s="38"/>
     </row>
     <row r="94" spans="1:13">
-      <c r="E94" s="38"/>
-      <c r="F94" s="38"/>
-      <c r="G94" s="38"/>
-      <c r="H94" s="38"/>
-      <c r="I94" s="38"/>
-      <c r="J94" s="38"/>
-      <c r="K94" s="38"/>
-      <c r="L94" s="38"/>
+      <c r="E94" s="70"/>
+      <c r="F94" s="65"/>
+      <c r="G94" s="70"/>
+      <c r="H94" s="64"/>
+      <c r="I94" s="66"/>
+      <c r="J94" s="67"/>
+      <c r="K94" s="65"/>
+      <c r="L94" s="65"/>
     </row>
     <row r="95" spans="1:13">
       <c r="E95" s="70"/>
-      <c r="F95" s="65"/>
+      <c r="F95" s="70"/>
       <c r="G95" s="70"/>
       <c r="H95" s="64"/>
       <c r="I95" s="66"/>
@@ -8192,25 +8218,15 @@
       <c r="K95" s="65"/>
       <c r="L95" s="65"/>
     </row>
-    <row r="96" spans="1:13">
-      <c r="E96" s="70"/>
-      <c r="F96" s="70"/>
-      <c r="G96" s="70"/>
-      <c r="H96" s="64"/>
-      <c r="I96" s="66"/>
-      <c r="J96" s="67"/>
-      <c r="K96" s="65"/>
-      <c r="L96" s="65"/>
-    </row>
+    <row r="99" ht="37.5" customHeight="1"/>
     <row r="100" ht="37.5" customHeight="1"/>
     <row r="101" ht="37.5" customHeight="1"/>
     <row r="102" ht="37.5" customHeight="1"/>
-    <row r="103" ht="37.5" customHeight="1"/>
-    <row r="105" ht="18" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="110" ht="30" customHeight="1"/>
-    <row r="114" ht="44.25" customHeight="1"/>
-    <row r="115" ht="45" customHeight="1"/>
+    <row r="104" ht="18" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="109" ht="30" customHeight="1"/>
+    <row r="113" ht="44.25" customHeight="1"/>
+    <row r="114" ht="45" customHeight="1"/>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="12">
@@ -8227,20 +8243,20 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
   </mergeCells>
-  <dataValidations count="5">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I81 I50 I78 I75 I69 I84">
+  <dataValidations disablePrompts="1" count="5">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I80 I49 I77 I74 I68 I83">
       <formula1>"Functional, Reliability, Usability, Effectiveness, Maintenance, Flexibility"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J81 J50 J78 J75 J69 J84">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J80 J49 J77 J74 J68 J83">
       <formula1>"Requirement, Accuracy, Operation, Standards conformance"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H95:H96 H83:H84 H29:H81 H8:H10 H13:H20 H22:H27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H94:H95 H82:H83 H28:H80 H8:H10 H21:H26 H13:H19">
       <formula1>"Normal,Abnormal,Boundary,Others"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I95:I96 I83 I51:I68 I79:I80 I76:I77 I70:I74 I29:I49 I8:I10 I13:I20 I22:I27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I94:I95 I82 I50:I67 I78:I79 I75:I76 I69:I73 I28:I48 I8:I10 I21:I26 I13:I19">
       <formula1>品質特性</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J70:J74 J76:J77 J83 J79:J80 J51:J68 J95:J96 J29:J49 J8:J10 J13:J20 J22:J27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J69:J73 J75:J76 J82 J78:J79 J50:J67 J94:J95 J28:J48 J8:J10 J21:J26 J13:J19">
       <formula1>INDIRECT($I8)</formula1>
     </dataValidation>
   </dataValidations>
@@ -8255,19 +8271,20 @@
   <dimension ref="A2"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="1:1" ht="15">
       <c r="A2" s="78" t="s">
-        <v>134</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
